--- a/database/synonym.xlsx
+++ b/database/synonym.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t xml:space="preserve">word1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">word2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+  <si>
+    <t xml:space="preserve">term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class</t>
   </si>
   <si>
     <t xml:space="preserve">buồn bã</t>
@@ -50,6 +50,21 @@
   </si>
   <si>
     <t xml:space="preserve">hậm hực</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giận</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cáu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mừng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sướng</t>
   </si>
 </sst>
 </file>
@@ -59,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -80,11 +95,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,18 +148,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -159,19 +169,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="44.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="0" width="8.6"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -228,6 +237,38 @@
         <v>7</v>
       </c>
       <c r="D6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/database/synonym.xlsx
+++ b/database/synonym.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t xml:space="preserve">term</t>
   </si>
@@ -40,6 +40,15 @@
     <t xml:space="preserve">bất ngờ</t>
   </si>
   <si>
+    <t xml:space="preserve">wow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinh ngạc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lạ</t>
+  </si>
+  <si>
     <t xml:space="preserve">tức giận</t>
   </si>
   <si>
@@ -65,6 +74,27 @@
   </si>
   <si>
     <t xml:space="preserve">sướng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sợ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sợ hãi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lo lắng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lo sợ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bất an</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinh hãi</t>
   </si>
 </sst>
 </file>
@@ -74,7 +104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -95,6 +125,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,7 +174,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -149,6 +184,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -169,10 +212,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -213,61 +256,133 @@
       <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>13</v>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/database/synonym.xlsx
+++ b/database/synonym.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="example" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">example!$A$1:$B$30</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t xml:space="preserve">term</t>
   </si>
@@ -34,12 +37,63 @@
     <t xml:space="preserve">buồn</t>
   </si>
   <si>
+    <t xml:space="preserve">chán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chán nản</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nhàm chán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giận dữ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bực</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tức giận</t>
+  </si>
+  <si>
+    <t xml:space="preserve">điên tiết</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hậm hực</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giận</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cáu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khó chịu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nhớ nhà</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoài niệm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ghê tởm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinh tởm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thờ ơ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lãnh đạm</t>
+  </si>
+  <si>
     <t xml:space="preserve">ngạc nhiên</t>
   </si>
   <si>
-    <t xml:space="preserve">bất ngờ</t>
-  </si>
-  <si>
     <t xml:space="preserve">wow</t>
   </si>
   <si>
@@ -49,52 +103,46 @@
     <t xml:space="preserve">lạ</t>
   </si>
   <si>
-    <t xml:space="preserve">tức giận</t>
-  </si>
-  <si>
-    <t xml:space="preserve">giận dữ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">điên tiết</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hậm hực</t>
-  </si>
-  <si>
-    <t xml:space="preserve">giận</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cáu</t>
+    <t xml:space="preserve">sợ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sợ hãi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lo lắng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lo sợ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bất an</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinh hãi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tự tin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tin tưởng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tin</t>
   </si>
   <si>
     <t xml:space="preserve">mừng</t>
   </si>
   <si>
+    <t xml:space="preserve">vui vẻ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sướng</t>
+  </si>
+  <si>
     <t xml:space="preserve">vui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sướng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sợ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sợ hãi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lo lắng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lo sợ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bất an</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kinh hãi</t>
   </si>
 </sst>
 </file>
@@ -104,7 +152,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -125,11 +173,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,8 +217,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -183,28 +230,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -212,25 +255,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="44.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="0" width="8.6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -241,14 +286,14 @@
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -256,7 +301,7 @@
       <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -264,84 +309,85 @@
       <c r="A5" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>16</v>
-      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -349,43 +395,132 @@
       <c r="A15" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>19</v>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B30"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -393,5 +528,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/database/synonym.xlsx
+++ b/database/synonym.xlsx
@@ -11,7 +11,8 @@
     <sheet name="example" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">example!$A$1:$B$30</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">example!$A$1:$B$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">example!$A$1:$B$30</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t xml:space="preserve">term</t>
   </si>
@@ -79,12 +80,21 @@
     <t xml:space="preserve">hoài niệm</t>
   </si>
   <si>
+    <t xml:space="preserve">khinh thường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khinh bỉ</t>
+  </si>
+  <si>
     <t xml:space="preserve">ghê tởm</t>
   </si>
   <si>
     <t xml:space="preserve">kinh tởm</t>
   </si>
   <si>
+    <t xml:space="preserve">ghê</t>
+  </si>
+  <si>
     <t xml:space="preserve">thờ ơ</t>
   </si>
   <si>
@@ -143,6 +153,12 @@
   </si>
   <si>
     <t xml:space="preserve">vui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yêu thương</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yêu</t>
   </si>
 </sst>
 </file>
@@ -255,10 +271,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -387,7 +403,7 @@
       <c r="A14" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -403,8 +419,8 @@
       <c r="A16" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>22</v>
+      <c r="B16" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -412,94 +428,94 @@
         <v>23</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="0" t="s">
         <v>27</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>27</v>
+      <c r="B21" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>27</v>
+      <c r="B22" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>34</v>
+      <c r="B27" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -516,11 +532,35 @@
         <v>39</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B30"/>
+  <autoFilter ref="A1:B33"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/database/synonym.xlsx
+++ b/database/synonym.xlsx
@@ -11,8 +11,8 @@
     <sheet name="example" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">example!$A$1:$B$33</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">example!$A$1:$B$30</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">example!$A$1:$B$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">example!$A$1:$B$32</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t xml:space="preserve">term</t>
   </si>
@@ -38,6 +38,12 @@
     <t xml:space="preserve">buồn</t>
   </si>
   <si>
+    <t xml:space="preserve">đau khổ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đau</t>
+  </si>
+  <si>
     <t xml:space="preserve">chán</t>
   </si>
   <si>
@@ -153,6 +159,9 @@
   </si>
   <si>
     <t xml:space="preserve">vui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hân hoan</t>
   </si>
   <si>
     <t xml:space="preserve">yêu thương</t>
@@ -271,10 +280,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -309,40 +318,44 @@
       <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="B3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -350,74 +363,74 @@
         <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="B9" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="B10" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>21</v>
@@ -425,26 +438,26 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -452,7 +465,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -460,31 +473,31 @@
         <v>28</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>30</v>
+      <c r="B22" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -492,7 +505,7 @@
         <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -500,7 +513,7 @@
         <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -508,7 +521,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -516,39 +529,39 @@
         <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="0" t="s">
         <v>37</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -556,11 +569,35 @@
         <v>43</v>
       </c>
       <c r="B33" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>44</v>
       </c>
+      <c r="B34" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B33"/>
+  <autoFilter ref="A1:B36"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/database/synonym.xlsx
+++ b/database/synonym.xlsx
@@ -283,7 +283,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/database/synonym.xlsx
+++ b/database/synonym.xlsx
@@ -11,8 +11,8 @@
     <sheet name="example" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">example!$A$1:$B$36</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">example!$A$1:$B$32</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">example!$A$1:$B$31</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">example!$A$1:$B$36</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
   <si>
     <t xml:space="preserve">term</t>
   </si>
@@ -68,6 +68,9 @@
     <t xml:space="preserve">điên tiết</t>
   </si>
   <si>
+    <t xml:space="preserve">thịnh nộ</t>
+  </si>
+  <si>
     <t xml:space="preserve">hậm hực</t>
   </si>
   <si>
@@ -137,37 +140,109 @@
     <t xml:space="preserve">bất an</t>
   </si>
   <si>
+    <t xml:space="preserve">tự tin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tin tưởng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mừng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vui vẻ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sướng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hân hoan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ngất ngây</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yêu thương</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yêu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vỡ mộng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thất vọng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanh thản</t>
+  </si>
+  <si>
+    <t xml:space="preserve">êm đềm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bình yên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bình thản</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quan tâm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thích thú</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dự đoán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mong đợi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đề phòng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cảnh giác</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bực mình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phiền</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phiền toái</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đăm chiêu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tâm trạng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đau buồn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phân tâm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lơ là</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khiếp sợ</t>
+  </si>
+  <si>
     <t xml:space="preserve">kinh hãi</t>
   </si>
   <si>
-    <t xml:space="preserve">tự tin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tin tưởng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mừng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vui vẻ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sướng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hân hoan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yêu thương</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yêu</t>
+    <t xml:space="preserve">khiếp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hờn</t>
   </si>
 </sst>
 </file>
@@ -177,7 +252,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -198,6 +273,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -242,7 +322,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -256,6 +336,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -280,10 +364,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B52" activeCellId="0" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -379,12 +463,12 @@
         <v>13</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -394,7 +478,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -404,7 +488,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
@@ -413,7 +497,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
@@ -422,143 +506,143 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="0" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>42</v>
@@ -566,7 +650,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>42</v>
@@ -574,7 +658,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>42</v>
@@ -582,7 +666,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>42</v>
@@ -590,14 +674,142 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B36"/>
+  <autoFilter ref="A1:B31"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/database/synonym.xlsx
+++ b/database/synonym.xlsx
@@ -11,8 +11,9 @@
     <sheet name="example" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">example!$A$1:$B$31</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">example!$A$1:$B$55</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">example!$A$1:$B$36</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">example!$A$1:$B$31</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
   <si>
     <t xml:space="preserve">term</t>
   </si>
@@ -32,6 +33,18 @@
     <t xml:space="preserve">class</t>
   </si>
   <si>
+    <t xml:space="preserve">bực mình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bực</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phiền</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phiền toái</t>
+  </si>
+  <si>
     <t xml:space="preserve">buồn bã</t>
   </si>
   <si>
@@ -44,6 +57,12 @@
     <t xml:space="preserve">đau</t>
   </si>
   <si>
+    <t xml:space="preserve">đề phòng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cảnh giác</t>
+  </si>
+  <si>
     <t xml:space="preserve">chán</t>
   </si>
   <si>
@@ -53,93 +72,156 @@
     <t xml:space="preserve">nhàm chán</t>
   </si>
   <si>
+    <t xml:space="preserve">đau buồn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanh thản</t>
+  </si>
+  <si>
+    <t xml:space="preserve">êm đềm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bình yên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bình thản</t>
+  </si>
+  <si>
     <t xml:space="preserve">tức</t>
   </si>
   <si>
     <t xml:space="preserve">giận dữ</t>
   </si>
   <si>
-    <t xml:space="preserve">bực</t>
-  </si>
-  <si>
     <t xml:space="preserve">tức giận</t>
   </si>
   <si>
+    <t xml:space="preserve">hậm hực</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giận</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cáu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khó chịu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hờn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nhớ nhà</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hoài niệm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khinh thường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khinh bỉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xem thường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coi thường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khiếp sợ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinh hãi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khiếp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ghê tởm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinh tởm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ghê</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thờ ơ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lãnh đạm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phân tâm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lơ là</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dự đoán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mong đợi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ngạc nhiên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinh ngạc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lạ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bất ngờ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sợ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sợ hãi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lo lắng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lo sợ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bất an</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đăm chiêu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tâm trạng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vỡ mộng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thất vọng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quan tâm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thích thú</t>
+  </si>
+  <si>
     <t xml:space="preserve">điên tiết</t>
   </si>
   <si>
     <t xml:space="preserve">thịnh nộ</t>
   </si>
   <si>
-    <t xml:space="preserve">hậm hực</t>
-  </si>
-  <si>
-    <t xml:space="preserve">giận</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cáu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">khó chịu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nhớ nhà</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hoài niệm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">khinh thường</t>
-  </si>
-  <si>
-    <t xml:space="preserve">khinh bỉ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ghê tởm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kinh tởm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ghê</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thờ ơ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lãnh đạm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ngạc nhiên</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kinh ngạc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lạ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sợ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sợ hãi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lo lắng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lo sợ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bất an</t>
-  </si>
-  <si>
     <t xml:space="preserve">tự tin</t>
   </si>
   <si>
@@ -173,76 +255,37 @@
     <t xml:space="preserve">yêu</t>
   </si>
   <si>
-    <t xml:space="preserve">vỡ mộng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thất vọng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thanh thản</t>
-  </si>
-  <si>
-    <t xml:space="preserve">êm đềm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bình yên</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bình thản</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quan tâm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thích thú</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dự đoán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mong đợi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">đề phòng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cảnh giác</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bực mình</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phiền</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phiền toái</t>
-  </si>
-  <si>
-    <t xml:space="preserve">đăm chiêu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tâm trạng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">đau buồn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phân tâm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lơ là</t>
-  </si>
-  <si>
-    <t xml:space="preserve">khiếp sợ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kinh hãi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">khiếp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hờn</t>
+    <t xml:space="preserve">sung sướng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vui sướng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phục</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phục tùng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thuân theo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bái phục</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xao nhãng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sầu đời</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phiền muộn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chán đời</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chán chường</t>
   </si>
 </sst>
 </file>
@@ -364,10 +407,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B52" activeCellId="0" sqref="B52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -422,7 +465,7 @@
       <c r="A5" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -430,7 +473,7 @@
       <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -439,39 +482,39 @@
         <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>10</v>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
+      <c r="B11" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -480,300 +523,300 @@
       <c r="A12" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
+      <c r="B12" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="3" t="s">
         <v>20</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>42</v>
+      <c r="B33" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="0" t="s">
         <v>48</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>50</v>
+      <c r="B37" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="0" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -781,35 +824,123 @@
         <v>67</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="0" t="s">
         <v>69</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B51" s="3" t="s">
         <v>70</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>10</v>
+      <c r="B53" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B31"/>
+  <autoFilter ref="A1:B55"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
